--- a/config_12.01/fish_map_config.xlsx
+++ b/config_12.01/fish_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -628,6 +628,18 @@
   </si>
   <si>
     <t>3dby_btn_bd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy_h</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2032,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3155,6 +3167,45 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J36" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.01/fish_map_config.xlsx
+++ b/config_12.01/fish_map_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="159">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -498,18 +498,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>可使用捕鱼比赛门票*1或鲸币*10万或红包券*10报名参赛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可付出与报名费相同的费用复活，在限定时间内复活可获得超级好运</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>所有玩家报名与复活所消耗的财富都将转换为等价红包券计入奖池</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>水母一家</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -603,10 +595,6 @@
   </si>
   <si>
     <t>rewardfish|奖励鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -631,11 +619,17 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>所有玩家报名与复活所消耗的财富都将转换为等价福利券计入奖池</t>
+  </si>
+  <si>
+    <t>可使用捕鱼比赛门票*1或金币*10万或福利券*10报名参赛</t>
+  </si>
+  <si>
+    <t>by_iocn_hfy_h</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>话费鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy_h</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -745,7 +739,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1059,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1155,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1224,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1380,14 +1377,14 @@
         <v>112</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1475,7 +1472,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2044,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2085,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
@@ -2463,9 +2460,7 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
         <v>36</v>
       </c>
@@ -2494,9 +2489,7 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2525,9 +2518,7 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2556,9 +2547,7 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
         <v>39</v>
       </c>
@@ -2587,9 +2576,7 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
         <v>40</v>
       </c>
@@ -2821,7 +2808,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
@@ -2857,7 +2844,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>52</v>
@@ -2929,7 +2916,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>63</v>
@@ -2963,14 +2950,12 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>154</v>
-      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H29" s="8">
         <v>1</v>
@@ -2979,7 +2964,7 @@
         <v>160</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2998,17 +2983,17 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3034,19 +3019,19 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H31" s="1">
         <v>0.3</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3072,17 +3057,17 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H32" s="8">
         <v>0.8</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3108,17 +3093,17 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="8">
         <v>0.8</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3144,17 +3129,17 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H34" s="8">
         <v>0.8</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3180,17 +3165,17 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>157</v>
       </c>
       <c r="H35" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="11" t="s">
-        <v>159</v>
+      <c r="J35" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3203,9 +3188,6 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J36" s="11"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
